--- a/runs/osu867/ncbi_mapping/ncbi_submission_data/no_biosamp_accession/no_biosamp_accession_osu867_SRA_metadata.xlsx
+++ b/runs/osu867/ncbi_mapping/ncbi_submission_data/no_biosamp_accession/no_biosamp_accession_osu867_SRA_metadata.xlsx
@@ -1337,6 +1337,11 @@
           <t>E24.NC.DY20-12_Parada16S_osu867</t>
         </is>
       </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Environmental DNA (eDNA) metabarcoding of CTD-collected seawater in the : Run OSU867</t>
+        </is>
+      </c>
       <c r="D2" s="11" t="inlineStr">
         <is>
           <t>AMPLICON</t>
@@ -1399,6 +1404,11 @@
           <t>E41.NC.DY20-12_Parada16S_osu867</t>
         </is>
       </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Environmental DNA (eDNA) metabarcoding of CTD-collected seawater in the : Run OSU867</t>
+        </is>
+      </c>
       <c r="D3" s="11" t="inlineStr">
         <is>
           <t>AMPLICON</t>
@@ -1461,6 +1471,11 @@
           <t>E56.NC.DY20-12_Parada16S_osu867</t>
         </is>
       </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Environmental DNA (eDNA) metabarcoding of CTD-collected seawater in the : Run OSU867</t>
+        </is>
+      </c>
       <c r="D4" s="11" t="inlineStr">
         <is>
           <t>AMPLICON</t>
@@ -1523,6 +1538,11 @@
           <t>E73.NC.DY20-12_Parada16S_osu867</t>
         </is>
       </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Environmental DNA (eDNA) metabarcoding of CTD-collected seawater in the : Run OSU867</t>
+        </is>
+      </c>
       <c r="D5" s="11" t="inlineStr">
         <is>
           <t>AMPLICON</t>
@@ -1709,6 +1729,11 @@
           <t>E26.2B.DY20-12_Parada16S_osu867</t>
         </is>
       </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Environmental DNA (eDNA) metabarcoding of CTD-collected seawater in the Bering Sea: Run OSU867</t>
+        </is>
+      </c>
       <c r="D8" s="11" t="inlineStr">
         <is>
           <t>AMPLICON</t>
@@ -1771,6 +1796,11 @@
           <t>E28.2B.DY20-12_Parada16S_osu867</t>
         </is>
       </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Environmental DNA (eDNA) metabarcoding of CTD-collected seawater in the Bering Sea: Run OSU867</t>
+        </is>
+      </c>
       <c r="D9" s="11" t="inlineStr">
         <is>
           <t>AMPLICON</t>
@@ -1833,6 +1863,11 @@
           <t>E29.2B.DY20-12_Parada16S_osu867</t>
         </is>
       </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Environmental DNA (eDNA) metabarcoding of CTD-collected seawater in the Bering Sea: Run OSU867</t>
+        </is>
+      </c>
       <c r="D10" s="11" t="inlineStr">
         <is>
           <t>AMPLICON</t>
@@ -1895,6 +1930,11 @@
           <t>E30.2B.DY20-12_Parada16S_osu867</t>
         </is>
       </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Environmental DNA (eDNA) metabarcoding of CTD-collected seawater in the Bering Sea: Run OSU867</t>
+        </is>
+      </c>
       <c r="D11" s="11" t="inlineStr">
         <is>
           <t>AMPLICON</t>
@@ -1957,6 +1997,11 @@
           <t>E31.2B.DY20-12_Parada16S_osu867</t>
         </is>
       </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Environmental DNA (eDNA) metabarcoding of CTD-collected seawater in the Bering Sea: Run OSU867</t>
+        </is>
+      </c>
       <c r="D12" s="11" t="inlineStr">
         <is>
           <t>AMPLICON</t>
@@ -2019,6 +2064,11 @@
           <t>E32.2B.DY20-12_Parada16S_osu867</t>
         </is>
       </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Environmental DNA (eDNA) metabarcoding of CTD-collected seawater in the Bering Sea: Run OSU867</t>
+        </is>
+      </c>
       <c r="D13" s="11" t="inlineStr">
         <is>
           <t>AMPLICON</t>
@@ -2081,6 +2131,11 @@
           <t>E33.2B.DY20-12_Parada16S_osu867</t>
         </is>
       </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Environmental DNA (eDNA) metabarcoding of CTD-collected seawater in the Bering Sea: Run OSU867</t>
+        </is>
+      </c>
       <c r="D14" s="11" t="inlineStr">
         <is>
           <t>AMPLICON</t>
@@ -2143,6 +2198,11 @@
           <t>E34.2B.DY20-12_Parada16S_osu867</t>
         </is>
       </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Environmental DNA (eDNA) metabarcoding of CTD-collected seawater in the Bering Sea: Run OSU867</t>
+        </is>
+      </c>
       <c r="D15" s="11" t="inlineStr">
         <is>
           <t>AMPLICON</t>
@@ -2205,6 +2265,11 @@
           <t>E35.2B.DY20-12_Parada16S_osu867</t>
         </is>
       </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Environmental DNA (eDNA) metabarcoding of CTD-collected seawater in the Bering Sea: Run OSU867</t>
+        </is>
+      </c>
       <c r="D16" s="11" t="inlineStr">
         <is>
           <t>AMPLICON</t>
@@ -2267,6 +2332,11 @@
           <t>E37.2B.DY20-12_Parada16S_osu867</t>
         </is>
       </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Environmental DNA (eDNA) metabarcoding of CTD-collected seawater in the Bering Sea: Run OSU867</t>
+        </is>
+      </c>
       <c r="D17" s="11" t="inlineStr">
         <is>
           <t>AMPLICON</t>
@@ -2329,6 +2399,11 @@
           <t>E38.2B.DY20-12_Parada16S_osu867</t>
         </is>
       </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Environmental DNA (eDNA) metabarcoding of CTD-collected seawater in the Bering Sea: Run OSU867</t>
+        </is>
+      </c>
       <c r="D18" s="11" t="inlineStr">
         <is>
           <t>AMPLICON</t>
@@ -2391,6 +2466,11 @@
           <t>E39.2B.DY20-12_Parada16S_osu867</t>
         </is>
       </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Environmental DNA (eDNA) metabarcoding of CTD-collected seawater in the Bering Sea: Run OSU867</t>
+        </is>
+      </c>
       <c r="D19" s="11" t="inlineStr">
         <is>
           <t>AMPLICON</t>
@@ -2453,6 +2533,11 @@
           <t>E40.2B.DY20-12_Parada16S_osu867</t>
         </is>
       </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Environmental DNA (eDNA) metabarcoding of CTD-collected seawater in the Bering Sea: Run OSU867</t>
+        </is>
+      </c>
       <c r="D20" s="11" t="inlineStr">
         <is>
           <t>AMPLICON</t>
@@ -2515,6 +2600,11 @@
           <t>E42.2B.DY20-12_Parada16S_osu867</t>
         </is>
       </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Environmental DNA (eDNA) metabarcoding of CTD-collected seawater in the Bering Sea: Run OSU867</t>
+        </is>
+      </c>
       <c r="D21" s="11" t="inlineStr">
         <is>
           <t>AMPLICON</t>
@@ -2577,6 +2667,11 @@
           <t>E43.2B.DY20-12_Parada16S_osu867</t>
         </is>
       </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Environmental DNA (eDNA) metabarcoding of CTD-collected seawater in the Bering Sea: Run OSU867</t>
+        </is>
+      </c>
       <c r="D22" s="11" t="inlineStr">
         <is>
           <t>AMPLICON</t>
@@ -2639,6 +2734,11 @@
           <t>E45.2B.DY20-12_Parada16S_osu867</t>
         </is>
       </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Environmental DNA (eDNA) metabarcoding of CTD-collected seawater in the Bering Sea: Run OSU867</t>
+        </is>
+      </c>
       <c r="D23" s="11" t="inlineStr">
         <is>
           <t>AMPLICON</t>
@@ -2701,6 +2801,11 @@
           <t>E47.2B.DY20-12_Parada16S_osu867</t>
         </is>
       </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Environmental DNA (eDNA) metabarcoding of CTD-collected seawater in the Bering Sea: Run OSU867</t>
+        </is>
+      </c>
       <c r="D24" s="11" t="inlineStr">
         <is>
           <t>AMPLICON</t>
@@ -2763,6 +2868,11 @@
           <t>E48.2B.DY20-12_Parada16S_osu867</t>
         </is>
       </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Environmental DNA (eDNA) metabarcoding of CTD-collected seawater in the Chukchi Sea: Run OSU867</t>
+        </is>
+      </c>
       <c r="D25" s="11" t="inlineStr">
         <is>
           <t>AMPLICON</t>
@@ -2825,6 +2935,11 @@
           <t>E50.2B.DY20-12_Parada16S_osu867</t>
         </is>
       </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Environmental DNA (eDNA) metabarcoding of CTD-collected seawater in the Chukchi Sea: Run OSU867</t>
+        </is>
+      </c>
       <c r="D26" s="11" t="inlineStr">
         <is>
           <t>AMPLICON</t>
@@ -2887,6 +3002,11 @@
           <t>E51.2B.DY20-12_Parada16S_osu867</t>
         </is>
       </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Environmental DNA (eDNA) metabarcoding of CTD-collected seawater in the Chukchi Sea: Run OSU867</t>
+        </is>
+      </c>
       <c r="D27" s="11" t="inlineStr">
         <is>
           <t>AMPLICON</t>
@@ -2949,6 +3069,11 @@
           <t>E52.2B.DY20-12_Parada16S_osu867</t>
         </is>
       </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Environmental DNA (eDNA) metabarcoding of CTD-collected seawater in the Chukchi Sea: Run OSU867</t>
+        </is>
+      </c>
       <c r="D28" s="11" t="inlineStr">
         <is>
           <t>AMPLICON</t>
@@ -3011,6 +3136,11 @@
           <t>E55.2B.DY20-12_Parada16S_osu867</t>
         </is>
       </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Environmental DNA (eDNA) metabarcoding of CTD-collected seawater in the Chukchi Sea: Run OSU867</t>
+        </is>
+      </c>
       <c r="D29" s="11" t="inlineStr">
         <is>
           <t>AMPLICON</t>
@@ -3073,6 +3203,11 @@
           <t>E57.2B.DY20-12_Parada16S_osu867</t>
         </is>
       </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Environmental DNA (eDNA) metabarcoding of CTD-collected seawater in the Arctic Ocean: Run OSU867</t>
+        </is>
+      </c>
       <c r="D30" s="11" t="inlineStr">
         <is>
           <t>AMPLICON</t>
@@ -3135,6 +3270,11 @@
           <t>E59.2B.DY20-12_Parada16S_osu867</t>
         </is>
       </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Environmental DNA (eDNA) metabarcoding of CTD-collected seawater in the Arctic Ocean: Run OSU867</t>
+        </is>
+      </c>
       <c r="D31" s="11" t="inlineStr">
         <is>
           <t>AMPLICON</t>
@@ -3197,6 +3337,11 @@
           <t>E60.2B.DY20-12_Parada16S_osu867</t>
         </is>
       </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Environmental DNA (eDNA) metabarcoding of CTD-collected seawater in the Arctic Ocean: Run OSU867</t>
+        </is>
+      </c>
       <c r="D32" s="11" t="inlineStr">
         <is>
           <t>AMPLICON</t>
@@ -3259,6 +3404,11 @@
           <t>E61.2B.DY20-12_Parada16S_osu867</t>
         </is>
       </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Environmental DNA (eDNA) metabarcoding of CTD-collected seawater in the Arctic Ocean: Run OSU867</t>
+        </is>
+      </c>
       <c r="D33" s="11" t="inlineStr">
         <is>
           <t>AMPLICON</t>
@@ -3321,6 +3471,11 @@
           <t>E62.2B.DY20-12_Parada16S_osu867</t>
         </is>
       </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Environmental DNA (eDNA) metabarcoding of CTD-collected seawater in the Arctic Ocean: Run OSU867</t>
+        </is>
+      </c>
       <c r="D34" s="11" t="inlineStr">
         <is>
           <t>AMPLICON</t>
@@ -3383,6 +3538,11 @@
           <t>E63.2B.DY20-12_Parada16S_osu867</t>
         </is>
       </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Environmental DNA (eDNA) metabarcoding of CTD-collected seawater in the Chukchi Sea: Run OSU867</t>
+        </is>
+      </c>
       <c r="D35" s="11" t="inlineStr">
         <is>
           <t>AMPLICON</t>
@@ -3445,6 +3605,11 @@
           <t>E64.2B.DY20-12_Parada16S_osu867</t>
         </is>
       </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Environmental DNA (eDNA) metabarcoding of CTD-collected seawater in the Chukchi Sea: Run OSU867</t>
+        </is>
+      </c>
       <c r="D36" s="11" t="inlineStr">
         <is>
           <t>AMPLICON</t>
@@ -3507,6 +3672,11 @@
           <t>E65.2B.DY20-12_Parada16S_osu867</t>
         </is>
       </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Environmental DNA (eDNA) metabarcoding of CTD-collected seawater in the Chukchi Sea: Run OSU867</t>
+        </is>
+      </c>
       <c r="D37" s="11" t="inlineStr">
         <is>
           <t>AMPLICON</t>
@@ -3569,6 +3739,11 @@
           <t>E66.2B.DY20-12_Parada16S_osu867</t>
         </is>
       </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Environmental DNA (eDNA) metabarcoding of CTD-collected seawater in the Chukchi Sea: Run OSU867</t>
+        </is>
+      </c>
       <c r="D38" s="11" t="inlineStr">
         <is>
           <t>AMPLICON</t>
@@ -3631,6 +3806,11 @@
           <t>E67.2B.DY20-12_Parada16S_osu867</t>
         </is>
       </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Environmental DNA (eDNA) metabarcoding of CTD-collected seawater in the Arctic Ocean: Run OSU867</t>
+        </is>
+      </c>
       <c r="D39" s="11" t="inlineStr">
         <is>
           <t>AMPLICON</t>
@@ -3693,6 +3873,11 @@
           <t>E68.2B.DY20-12_Parada16S_osu867</t>
         </is>
       </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Environmental DNA (eDNA) metabarcoding of CTD-collected seawater in the Arctic Ocean: Run OSU867</t>
+        </is>
+      </c>
       <c r="D40" s="11" t="inlineStr">
         <is>
           <t>AMPLICON</t>
@@ -3755,6 +3940,11 @@
           <t>E69.2B.DY20-12_Parada16S_osu867</t>
         </is>
       </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Environmental DNA (eDNA) metabarcoding of CTD-collected seawater in the Arctic Ocean: Run OSU867</t>
+        </is>
+      </c>
       <c r="D41" s="11" t="inlineStr">
         <is>
           <t>AMPLICON</t>
@@ -3817,6 +4007,11 @@
           <t>E70.2B.DY20-12_Parada16S_osu867</t>
         </is>
       </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Environmental DNA (eDNA) metabarcoding of CTD-collected seawater in the Arctic Ocean: Run OSU867</t>
+        </is>
+      </c>
       <c r="D42" s="11" t="inlineStr">
         <is>
           <t>AMPLICON</t>
@@ -3879,6 +4074,11 @@
           <t>E71.2B.DY20-12_Parada16S_osu867</t>
         </is>
       </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Environmental DNA (eDNA) metabarcoding of CTD-collected seawater in the Bering Sea: Run OSU867</t>
+        </is>
+      </c>
       <c r="D43" s="11" t="inlineStr">
         <is>
           <t>AMPLICON</t>
@@ -3941,6 +4141,11 @@
           <t>E72.2B.DY20-12_Parada16S_osu867</t>
         </is>
       </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Environmental DNA (eDNA) metabarcoding of CTD-collected seawater in the Bering Sea: Run OSU867</t>
+        </is>
+      </c>
       <c r="D44" s="11" t="inlineStr">
         <is>
           <t>AMPLICON</t>
@@ -4003,6 +4208,11 @@
           <t>E24.NC.DY20-12_Machida18S_osu867</t>
         </is>
       </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Environmental DNA (eDNA) metabarcoding of CTD-collected seawater in the : Run OSU867</t>
+        </is>
+      </c>
       <c r="D45" s="11" t="inlineStr">
         <is>
           <t>AMPLICON</t>
@@ -4065,6 +4275,11 @@
           <t>E41.NC.DY20-12_Machida18S_osu867</t>
         </is>
       </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Environmental DNA (eDNA) metabarcoding of CTD-collected seawater in the : Run OSU867</t>
+        </is>
+      </c>
       <c r="D46" s="11" t="inlineStr">
         <is>
           <t>AMPLICON</t>
@@ -4127,6 +4342,11 @@
           <t>E56.NC.DY20-12_Machida18S_osu867</t>
         </is>
       </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Environmental DNA (eDNA) metabarcoding of CTD-collected seawater in the : Run OSU867</t>
+        </is>
+      </c>
       <c r="D47" s="11" t="inlineStr">
         <is>
           <t>AMPLICON</t>
@@ -4189,6 +4409,11 @@
           <t>E73.NC.DY20-12_Machida18S_osu867</t>
         </is>
       </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Environmental DNA (eDNA) metabarcoding of CTD-collected seawater in the : Run OSU867</t>
+        </is>
+      </c>
       <c r="D48" s="11" t="inlineStr">
         <is>
           <t>AMPLICON</t>
@@ -4375,6 +4600,11 @@
           <t>E26.2B.DY20-12_Machida18S_osu867</t>
         </is>
       </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Environmental DNA (eDNA) metabarcoding of CTD-collected seawater in the Bering Sea: Run OSU867</t>
+        </is>
+      </c>
       <c r="D51" s="11" t="inlineStr">
         <is>
           <t>AMPLICON</t>
@@ -4437,6 +4667,11 @@
           <t>E28.2B.DY20-12_Machida18S_osu867</t>
         </is>
       </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Environmental DNA (eDNA) metabarcoding of CTD-collected seawater in the Bering Sea: Run OSU867</t>
+        </is>
+      </c>
       <c r="D52" s="11" t="inlineStr">
         <is>
           <t>AMPLICON</t>
@@ -4499,6 +4734,11 @@
           <t>E29.2B.DY20-12_Machida18S_osu867</t>
         </is>
       </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Environmental DNA (eDNA) metabarcoding of CTD-collected seawater in the Bering Sea: Run OSU867</t>
+        </is>
+      </c>
       <c r="D53" s="11" t="inlineStr">
         <is>
           <t>AMPLICON</t>
@@ -4561,6 +4801,11 @@
           <t>E30.2B.DY20-12_Machida18S_osu867</t>
         </is>
       </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Environmental DNA (eDNA) metabarcoding of CTD-collected seawater in the Bering Sea: Run OSU867</t>
+        </is>
+      </c>
       <c r="D54" s="11" t="inlineStr">
         <is>
           <t>AMPLICON</t>
@@ -4623,6 +4868,11 @@
           <t>E31.2B.DY20-12_Machida18S_osu867</t>
         </is>
       </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Environmental DNA (eDNA) metabarcoding of CTD-collected seawater in the Bering Sea: Run OSU867</t>
+        </is>
+      </c>
       <c r="D55" s="11" t="inlineStr">
         <is>
           <t>AMPLICON</t>
@@ -4685,6 +4935,11 @@
           <t>E32.2B.DY20-12_Machida18S_osu867</t>
         </is>
       </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Environmental DNA (eDNA) metabarcoding of CTD-collected seawater in the Bering Sea: Run OSU867</t>
+        </is>
+      </c>
       <c r="D56" s="11" t="inlineStr">
         <is>
           <t>AMPLICON</t>
@@ -4747,6 +5002,11 @@
           <t>E33.2B.DY20-12_Machida18S_osu867</t>
         </is>
       </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Environmental DNA (eDNA) metabarcoding of CTD-collected seawater in the Bering Sea: Run OSU867</t>
+        </is>
+      </c>
       <c r="D57" s="11" t="inlineStr">
         <is>
           <t>AMPLICON</t>
@@ -4809,6 +5069,11 @@
           <t>E34.2B.DY20-12_Machida18S_osu867</t>
         </is>
       </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Environmental DNA (eDNA) metabarcoding of CTD-collected seawater in the Bering Sea: Run OSU867</t>
+        </is>
+      </c>
       <c r="D58" s="11" t="inlineStr">
         <is>
           <t>AMPLICON</t>
@@ -4871,6 +5136,11 @@
           <t>E35.2B.DY20-12_Machida18S_osu867</t>
         </is>
       </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Environmental DNA (eDNA) metabarcoding of CTD-collected seawater in the Bering Sea: Run OSU867</t>
+        </is>
+      </c>
       <c r="D59" s="11" t="inlineStr">
         <is>
           <t>AMPLICON</t>
@@ -4933,6 +5203,11 @@
           <t>E37.2B.DY20-12_Machida18S_osu867</t>
         </is>
       </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Environmental DNA (eDNA) metabarcoding of CTD-collected seawater in the Bering Sea: Run OSU867</t>
+        </is>
+      </c>
       <c r="D60" s="11" t="inlineStr">
         <is>
           <t>AMPLICON</t>
@@ -4995,6 +5270,11 @@
           <t>E38.2B.DY20-12_Machida18S_osu867</t>
         </is>
       </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Environmental DNA (eDNA) metabarcoding of CTD-collected seawater in the Bering Sea: Run OSU867</t>
+        </is>
+      </c>
       <c r="D61" s="11" t="inlineStr">
         <is>
           <t>AMPLICON</t>
@@ -5057,6 +5337,11 @@
           <t>E39.2B.DY20-12_Machida18S_osu867</t>
         </is>
       </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Environmental DNA (eDNA) metabarcoding of CTD-collected seawater in the Bering Sea: Run OSU867</t>
+        </is>
+      </c>
       <c r="D62" s="11" t="inlineStr">
         <is>
           <t>AMPLICON</t>
@@ -5119,6 +5404,11 @@
           <t>E40.2B.DY20-12_Machida18S_osu867</t>
         </is>
       </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Environmental DNA (eDNA) metabarcoding of CTD-collected seawater in the Bering Sea: Run OSU867</t>
+        </is>
+      </c>
       <c r="D63" s="11" t="inlineStr">
         <is>
           <t>AMPLICON</t>
@@ -5181,6 +5471,11 @@
           <t>E42.2B.DY20-12_Machida18S_osu867</t>
         </is>
       </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Environmental DNA (eDNA) metabarcoding of CTD-collected seawater in the Bering Sea: Run OSU867</t>
+        </is>
+      </c>
       <c r="D64" s="11" t="inlineStr">
         <is>
           <t>AMPLICON</t>
@@ -5243,6 +5538,11 @@
           <t>E43.2B.DY20-12_Machida18S_osu867</t>
         </is>
       </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Environmental DNA (eDNA) metabarcoding of CTD-collected seawater in the Bering Sea: Run OSU867</t>
+        </is>
+      </c>
       <c r="D65" s="11" t="inlineStr">
         <is>
           <t>AMPLICON</t>
@@ -5305,6 +5605,11 @@
           <t>E45.2B.DY20-12_Machida18S_osu867</t>
         </is>
       </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Environmental DNA (eDNA) metabarcoding of CTD-collected seawater in the Bering Sea: Run OSU867</t>
+        </is>
+      </c>
       <c r="D66" s="11" t="inlineStr">
         <is>
           <t>AMPLICON</t>
@@ -5367,6 +5672,11 @@
           <t>E47.2B.DY20-12_Machida18S_osu867</t>
         </is>
       </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Environmental DNA (eDNA) metabarcoding of CTD-collected seawater in the Bering Sea: Run OSU867</t>
+        </is>
+      </c>
       <c r="D67" s="11" t="inlineStr">
         <is>
           <t>AMPLICON</t>
@@ -5429,6 +5739,11 @@
           <t>E48.2B.DY20-12_Machida18S_osu867</t>
         </is>
       </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Environmental DNA (eDNA) metabarcoding of CTD-collected seawater in the Chukchi Sea: Run OSU867</t>
+        </is>
+      </c>
       <c r="D68" s="11" t="inlineStr">
         <is>
           <t>AMPLICON</t>
@@ -5491,6 +5806,11 @@
           <t>E50.2B.DY20-12_Machida18S_osu867</t>
         </is>
       </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Environmental DNA (eDNA) metabarcoding of CTD-collected seawater in the Chukchi Sea: Run OSU867</t>
+        </is>
+      </c>
       <c r="D69" s="11" t="inlineStr">
         <is>
           <t>AMPLICON</t>
@@ -5553,6 +5873,11 @@
           <t>E51.2B.DY20-12_Machida18S_osu867</t>
         </is>
       </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Environmental DNA (eDNA) metabarcoding of CTD-collected seawater in the Chukchi Sea: Run OSU867</t>
+        </is>
+      </c>
       <c r="D70" s="11" t="inlineStr">
         <is>
           <t>AMPLICON</t>
@@ -5615,6 +5940,11 @@
           <t>E52.2B.DY20-12_Machida18S_osu867</t>
         </is>
       </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Environmental DNA (eDNA) metabarcoding of CTD-collected seawater in the Chukchi Sea: Run OSU867</t>
+        </is>
+      </c>
       <c r="D71" s="11" t="inlineStr">
         <is>
           <t>AMPLICON</t>
@@ -5677,6 +6007,11 @@
           <t>E55.2B.DY20-12_Machida18S_osu867</t>
         </is>
       </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Environmental DNA (eDNA) metabarcoding of CTD-collected seawater in the Chukchi Sea: Run OSU867</t>
+        </is>
+      </c>
       <c r="D72" s="11" t="inlineStr">
         <is>
           <t>AMPLICON</t>
@@ -5739,6 +6074,11 @@
           <t>E57.2B.DY20-12_Machida18S_osu867</t>
         </is>
       </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Environmental DNA (eDNA) metabarcoding of CTD-collected seawater in the Arctic Ocean: Run OSU867</t>
+        </is>
+      </c>
       <c r="D73" s="11" t="inlineStr">
         <is>
           <t>AMPLICON</t>
@@ -5801,6 +6141,11 @@
           <t>E59.2B.DY20-12_Machida18S_osu867</t>
         </is>
       </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Environmental DNA (eDNA) metabarcoding of CTD-collected seawater in the Arctic Ocean: Run OSU867</t>
+        </is>
+      </c>
       <c r="D74" s="11" t="inlineStr">
         <is>
           <t>AMPLICON</t>
@@ -5863,6 +6208,11 @@
           <t>E60.2B.DY20-12_Machida18S_osu867</t>
         </is>
       </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Environmental DNA (eDNA) metabarcoding of CTD-collected seawater in the Arctic Ocean: Run OSU867</t>
+        </is>
+      </c>
       <c r="D75" s="11" t="inlineStr">
         <is>
           <t>AMPLICON</t>
@@ -5925,6 +6275,11 @@
           <t>E61.2B.DY20-12_Machida18S_osu867</t>
         </is>
       </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Environmental DNA (eDNA) metabarcoding of CTD-collected seawater in the Arctic Ocean: Run OSU867</t>
+        </is>
+      </c>
       <c r="D76" s="11" t="inlineStr">
         <is>
           <t>AMPLICON</t>
@@ -5987,6 +6342,11 @@
           <t>E62.2B.DY20-12_Machida18S_osu867</t>
         </is>
       </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Environmental DNA (eDNA) metabarcoding of CTD-collected seawater in the Arctic Ocean: Run OSU867</t>
+        </is>
+      </c>
       <c r="D77" s="11" t="inlineStr">
         <is>
           <t>AMPLICON</t>
@@ -6049,6 +6409,11 @@
           <t>E63.2B.DY20-12_Machida18S_osu867</t>
         </is>
       </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Environmental DNA (eDNA) metabarcoding of CTD-collected seawater in the Chukchi Sea: Run OSU867</t>
+        </is>
+      </c>
       <c r="D78" s="11" t="inlineStr">
         <is>
           <t>AMPLICON</t>
@@ -6111,6 +6476,11 @@
           <t>E64.2B.DY20-12_Machida18S_osu867</t>
         </is>
       </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Environmental DNA (eDNA) metabarcoding of CTD-collected seawater in the Chukchi Sea: Run OSU867</t>
+        </is>
+      </c>
       <c r="D79" s="11" t="inlineStr">
         <is>
           <t>AMPLICON</t>
@@ -6173,6 +6543,11 @@
           <t>E65.2B.DY20-12_Machida18S_osu867</t>
         </is>
       </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Environmental DNA (eDNA) metabarcoding of CTD-collected seawater in the Chukchi Sea: Run OSU867</t>
+        </is>
+      </c>
       <c r="D80" s="11" t="inlineStr">
         <is>
           <t>AMPLICON</t>
@@ -6235,6 +6610,11 @@
           <t>E66.2B.DY20-12_Machida18S_osu867</t>
         </is>
       </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Environmental DNA (eDNA) metabarcoding of CTD-collected seawater in the Chukchi Sea: Run OSU867</t>
+        </is>
+      </c>
       <c r="D81" s="11" t="inlineStr">
         <is>
           <t>AMPLICON</t>
@@ -6297,6 +6677,11 @@
           <t>E67.2B.DY20-12_Machida18S_osu867</t>
         </is>
       </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Environmental DNA (eDNA) metabarcoding of CTD-collected seawater in the Arctic Ocean: Run OSU867</t>
+        </is>
+      </c>
       <c r="D82" s="11" t="inlineStr">
         <is>
           <t>AMPLICON</t>
@@ -6359,6 +6744,11 @@
           <t>E68.2B.DY20-12_Machida18S_osu867</t>
         </is>
       </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Environmental DNA (eDNA) metabarcoding of CTD-collected seawater in the Arctic Ocean: Run OSU867</t>
+        </is>
+      </c>
       <c r="D83" s="11" t="inlineStr">
         <is>
           <t>AMPLICON</t>
@@ -6421,6 +6811,11 @@
           <t>E69.2B.DY20-12_Machida18S_osu867</t>
         </is>
       </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Environmental DNA (eDNA) metabarcoding of CTD-collected seawater in the Arctic Ocean: Run OSU867</t>
+        </is>
+      </c>
       <c r="D84" s="11" t="inlineStr">
         <is>
           <t>AMPLICON</t>
@@ -6483,6 +6878,11 @@
           <t>E70.2B.DY20-12_Machida18S_osu867</t>
         </is>
       </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Environmental DNA (eDNA) metabarcoding of CTD-collected seawater in the Arctic Ocean: Run OSU867</t>
+        </is>
+      </c>
       <c r="D85" s="11" t="inlineStr">
         <is>
           <t>AMPLICON</t>
@@ -6545,6 +6945,11 @@
           <t>E71.2B.DY20-12_Machida18S_osu867</t>
         </is>
       </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Environmental DNA (eDNA) metabarcoding of CTD-collected seawater in the Bering Sea: Run OSU867</t>
+        </is>
+      </c>
       <c r="D86" s="11" t="inlineStr">
         <is>
           <t>AMPLICON</t>
@@ -6605,6 +7010,11 @@
       <c r="B87" t="inlineStr">
         <is>
           <t>E72.2B.DY20-12_Machida18S_osu867</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Environmental DNA (eDNA) metabarcoding of CTD-collected seawater in the Bering Sea: Run OSU867</t>
         </is>
       </c>
       <c r="D87" s="11" t="inlineStr">

--- a/runs/osu867/ncbi_mapping/ncbi_submission_data/no_biosamp_accession/no_biosamp_accession_osu867_SRA_metadata.xlsx
+++ b/runs/osu867/ncbi_mapping/ncbi_submission_data/no_biosamp_accession/no_biosamp_accession_osu867_SRA_metadata.xlsx
@@ -1374,7 +1374,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Sequencing performed at None</t>
+          <t>Sequencing performed at Oregon State University Center for Quantitative Life Sciences Genomics Core</t>
         </is>
       </c>
       <c r="K2" s="11" t="inlineStr">
@@ -1384,12 +1384,12 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>MP_E24_NC_DY20_R1.fastq.gz</t>
+          <t>E24.NC.DY20-12_Parada16S_osu867_R1.fastq.gz</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>MP_E24_NC_DY20_R2.fastq.gz</t>
+          <t>E24.NC.DY20-12_Parada16S_osu867_R2.fastq.gz</t>
         </is>
       </c>
     </row>
@@ -1441,7 +1441,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Sequencing performed at None</t>
+          <t>Sequencing performed at Oregon State University Center for Quantitative Life Sciences Genomics Core</t>
         </is>
       </c>
       <c r="K3" s="11" t="inlineStr">
@@ -1451,12 +1451,12 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>MP_E41_NC_DY20_R1.fastq.gz</t>
+          <t>E41.NC.DY20-12_Parada16S_osu867_R1.fastq.gz</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>MP_E41_NC_DY20_R2.fastq.gz</t>
+          <t>E41.NC.DY20-12_Parada16S_osu867_R2.fastq.gz</t>
         </is>
       </c>
     </row>
@@ -1508,7 +1508,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Sequencing performed at None</t>
+          <t>Sequencing performed at Oregon State University Center for Quantitative Life Sciences Genomics Core</t>
         </is>
       </c>
       <c r="K4" s="11" t="inlineStr">
@@ -1518,12 +1518,12 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>MP_E56_NC_DY20_R1.fastq.gz</t>
+          <t>E56.NC.DY20-12_Parada16S_osu867_R1.fastq.gz</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>MP_E56_NC_DY20_R2.fastq.gz</t>
+          <t>E56.NC.DY20-12_Parada16S_osu867_R2.fastq.gz</t>
         </is>
       </c>
     </row>
@@ -1575,7 +1575,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Sequencing performed at None</t>
+          <t>Sequencing performed at Oregon State University Center for Quantitative Life Sciences Genomics Core</t>
         </is>
       </c>
       <c r="K5" s="11" t="inlineStr">
@@ -1585,12 +1585,12 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>MP_E73_NC_DY20_R1.fastq.gz</t>
+          <t>E73.NC.DY20-12_Parada16S_osu867_R1.fastq.gz</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>MP_E73_NC_DY20_R2.fastq.gz</t>
+          <t>E73.NC.DY20-12_Parada16S_osu867_R2.fastq.gz</t>
         </is>
       </c>
     </row>
@@ -1637,7 +1637,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Sequencing performed at None</t>
+          <t>Sequencing performed at Oregon State University Center for Quantitative Life Sciences Genomics Core</t>
         </is>
       </c>
       <c r="K6" s="11" t="inlineStr">
@@ -1647,12 +1647,12 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>MP_Camel_R1.fastq.gz</t>
+          <t>osu867.Parada16S.POSITIVE.Camel_Parada16S_osu867_R1.fastq.gz</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>MP_Camel_R2.fastq.gz</t>
+          <t>osu867.Parada16S.POSITIVE.Camel_Parada16S_osu867_R2.fastq.gz</t>
         </is>
       </c>
     </row>
@@ -1699,7 +1699,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Sequencing performed at None</t>
+          <t>Sequencing performed at Oregon State University Center for Quantitative Life Sciences Genomics Core</t>
         </is>
       </c>
       <c r="K7" s="11" t="inlineStr">
@@ -1709,12 +1709,12 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>MP_Ferett_R1.fastq.gz</t>
+          <t>osu867.Parada16S.POSITIVE.Ferret_Parada16S_osu867_R1.fastq.gz</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>MP_Ferett_R2.fastq.gz</t>
+          <t>osu867.Parada16S.POSITIVE.Ferret_Parada16S_osu867_R2.fastq.gz</t>
         </is>
       </c>
     </row>
@@ -1766,7 +1766,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Sequencing performed at None</t>
+          <t>Sequencing performed at Oregon State University Center for Quantitative Life Sciences Genomics Core</t>
         </is>
       </c>
       <c r="K8" s="11" t="inlineStr">
@@ -1776,12 +1776,12 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>MP_E26_2B_DY20_R1.fastq.gz</t>
+          <t>E26.2B.DY20-12_Parada16S_osu867_R1.fastq.gz</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>MP_E26_2B_DY20_R2.fastq.gz</t>
+          <t>E26.2B.DY20-12_Parada16S_osu867_R2.fastq.gz</t>
         </is>
       </c>
     </row>
@@ -1833,7 +1833,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Sequencing performed at None</t>
+          <t>Sequencing performed at Oregon State University Center for Quantitative Life Sciences Genomics Core</t>
         </is>
       </c>
       <c r="K9" s="11" t="inlineStr">
@@ -1843,12 +1843,12 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>MP_E28_2B_DY20_R1.fastq.gz</t>
+          <t>E28.2B.DY20-12_Parada16S_osu867_R1.fastq.gz</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>MP_E28_2B_DY20_R2.fastq.gz</t>
+          <t>E28.2B.DY20-12_Parada16S_osu867_R2.fastq.gz</t>
         </is>
       </c>
     </row>
@@ -1900,7 +1900,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Sequencing performed at None</t>
+          <t>Sequencing performed at Oregon State University Center for Quantitative Life Sciences Genomics Core</t>
         </is>
       </c>
       <c r="K10" s="11" t="inlineStr">
@@ -1910,12 +1910,12 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>MP_E29_2B_DY20_R1.fastq.gz</t>
+          <t>E29.2B.DY20-12_Parada16S_osu867_R1.fastq.gz</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>MP_E29_2B_DY20_R2.fastq.gz</t>
+          <t>E29.2B.DY20-12_Parada16S_osu867_R2.fastq.gz</t>
         </is>
       </c>
     </row>
@@ -1967,7 +1967,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Sequencing performed at None</t>
+          <t>Sequencing performed at Oregon State University Center for Quantitative Life Sciences Genomics Core</t>
         </is>
       </c>
       <c r="K11" s="11" t="inlineStr">
@@ -1977,12 +1977,12 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>MP_E30_2B_DY20_R1.fastq.gz</t>
+          <t>E30.2B.DY20-12_Parada16S_osu867_R1.fastq.gz</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>MP_E30_2B_DY20_R2.fastq.gz</t>
+          <t>E30.2B.DY20-12_Parada16S_osu867_R2.fastq.gz</t>
         </is>
       </c>
     </row>
@@ -2034,7 +2034,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Sequencing performed at None</t>
+          <t>Sequencing performed at Oregon State University Center for Quantitative Life Sciences Genomics Core</t>
         </is>
       </c>
       <c r="K12" s="11" t="inlineStr">
@@ -2044,12 +2044,12 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>MP_E31_2B_DY20_R1.fastq.gz</t>
+          <t>E31.2B.DY20-12_Parada16S_osu867_R1.fastq.gz</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>MP_E31_2B_DY20_R2.fastq.gz</t>
+          <t>E31.2B.DY20-12_Parada16S_osu867_R2.fastq.gz</t>
         </is>
       </c>
     </row>
@@ -2101,7 +2101,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Sequencing performed at None</t>
+          <t>Sequencing performed at Oregon State University Center for Quantitative Life Sciences Genomics Core</t>
         </is>
       </c>
       <c r="K13" s="11" t="inlineStr">
@@ -2111,12 +2111,12 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>MP_E32_2B_DY20_R1.fastq.gz</t>
+          <t>E32.2B.DY20-12_Parada16S_osu867_R1.fastq.gz</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>MP_E32_2B_DY20_R2.fastq.gz</t>
+          <t>E32.2B.DY20-12_Parada16S_osu867_R2.fastq.gz</t>
         </is>
       </c>
     </row>
@@ -2168,7 +2168,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Sequencing performed at None</t>
+          <t>Sequencing performed at Oregon State University Center for Quantitative Life Sciences Genomics Core</t>
         </is>
       </c>
       <c r="K14" s="11" t="inlineStr">
@@ -2178,12 +2178,12 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>MP_E33_2B_DY20_R1.fastq.gz</t>
+          <t>E33.2B.DY20-12_Parada16S_osu867_R1.fastq.gz</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>MP_E33_2B_DY20_R2.fastq.gz</t>
+          <t>E33.2B.DY20-12_Parada16S_osu867_R2.fastq.gz</t>
         </is>
       </c>
     </row>
@@ -2235,7 +2235,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Sequencing performed at None</t>
+          <t>Sequencing performed at Oregon State University Center for Quantitative Life Sciences Genomics Core</t>
         </is>
       </c>
       <c r="K15" s="11" t="inlineStr">
@@ -2245,12 +2245,12 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>MP_E34_2B_DY20_R1.fastq.gz</t>
+          <t>E34.2B.DY20-12_Parada16S_osu867_R1.fastq.gz</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>MP_E34_2B_DY20_R2.fastq.gz</t>
+          <t>E34.2B.DY20-12_Parada16S_osu867_R2.fastq.gz</t>
         </is>
       </c>
     </row>
@@ -2302,7 +2302,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Sequencing performed at None</t>
+          <t>Sequencing performed at Oregon State University Center for Quantitative Life Sciences Genomics Core</t>
         </is>
       </c>
       <c r="K16" s="11" t="inlineStr">
@@ -2312,12 +2312,12 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>MP_E35_2B_DY20_R1.fastq.gz</t>
+          <t>E35.2B.DY20-12_Parada16S_osu867_R1.fastq.gz</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>MP_E35_2B_DY20_R2.fastq.gz</t>
+          <t>E35.2B.DY20-12_Parada16S_osu867_R2.fastq.gz</t>
         </is>
       </c>
     </row>
@@ -2369,7 +2369,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Sequencing performed at None</t>
+          <t>Sequencing performed at Oregon State University Center for Quantitative Life Sciences Genomics Core</t>
         </is>
       </c>
       <c r="K17" s="11" t="inlineStr">
@@ -2379,12 +2379,12 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>MP_E37_2B_DY20_R1.fastq.gz</t>
+          <t>E37.2B.DY20-12_Parada16S_osu867_R1.fastq.gz</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>MP_E37_2B_DY20_R2.fastq.gz</t>
+          <t>E37.2B.DY20-12_Parada16S_osu867_R2.fastq.gz</t>
         </is>
       </c>
     </row>
@@ -2436,7 +2436,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Sequencing performed at None</t>
+          <t>Sequencing performed at Oregon State University Center for Quantitative Life Sciences Genomics Core</t>
         </is>
       </c>
       <c r="K18" s="11" t="inlineStr">
@@ -2446,12 +2446,12 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>MP_E38_2B_DY20_R1.fastq.gz</t>
+          <t>E38.2B.DY20-12_Parada16S_osu867_R1.fastq.gz</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>MP_E38_2B_DY20_R2.fastq.gz</t>
+          <t>E38.2B.DY20-12_Parada16S_osu867_R2.fastq.gz</t>
         </is>
       </c>
     </row>
@@ -2503,7 +2503,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Sequencing performed at None</t>
+          <t>Sequencing performed at Oregon State University Center for Quantitative Life Sciences Genomics Core</t>
         </is>
       </c>
       <c r="K19" s="11" t="inlineStr">
@@ -2513,12 +2513,12 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>MP_E39_2B_DY20_R1.fastq.gz</t>
+          <t>E39.2B.DY20-12_Parada16S_osu867_R1.fastq.gz</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>MP_E39_2B_DY20_R2.fastq.gz</t>
+          <t>E39.2B.DY20-12_Parada16S_osu867_R2.fastq.gz</t>
         </is>
       </c>
     </row>
@@ -2570,7 +2570,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Sequencing performed at None</t>
+          <t>Sequencing performed at Oregon State University Center for Quantitative Life Sciences Genomics Core</t>
         </is>
       </c>
       <c r="K20" s="11" t="inlineStr">
@@ -2580,12 +2580,12 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>MP_E40_2B_DY20_R1.fastq.gz</t>
+          <t>E40.2B.DY20-12_Parada16S_osu867_R1.fastq.gz</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>MP_E40_2B_DY20_R2.fastq.gz</t>
+          <t>E40.2B.DY20-12_Parada16S_osu867_R2.fastq.gz</t>
         </is>
       </c>
     </row>
@@ -2637,7 +2637,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Sequencing performed at None</t>
+          <t>Sequencing performed at Oregon State University Center for Quantitative Life Sciences Genomics Core</t>
         </is>
       </c>
       <c r="K21" s="11" t="inlineStr">
@@ -2647,12 +2647,12 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>MP_E42_2B_DY20_R1.fastq.gz</t>
+          <t>E42.2B.DY20-12_Parada16S_osu867_R1.fastq.gz</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>MP_E42_2B_DY20_R2.fastq.gz</t>
+          <t>E42.2B.DY20-12_Parada16S_osu867_R2.fastq.gz</t>
         </is>
       </c>
     </row>
@@ -2704,7 +2704,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Sequencing performed at None</t>
+          <t>Sequencing performed at Oregon State University Center for Quantitative Life Sciences Genomics Core</t>
         </is>
       </c>
       <c r="K22" s="11" t="inlineStr">
@@ -2714,12 +2714,12 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>MP_E43_2B_DY20_R1.fastq.gz</t>
+          <t>E43.2B.DY20-12_Parada16S_osu867_R1.fastq.gz</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>MP_E43_2B_DY20_R2.fastq.gz</t>
+          <t>E43.2B.DY20-12_Parada16S_osu867_R2.fastq.gz</t>
         </is>
       </c>
     </row>
@@ -2771,7 +2771,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Sequencing performed at None</t>
+          <t>Sequencing performed at Oregon State University Center for Quantitative Life Sciences Genomics Core</t>
         </is>
       </c>
       <c r="K23" s="11" t="inlineStr">
@@ -2781,12 +2781,12 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>MP_E45_2B_DY20_R1.fastq.gz</t>
+          <t>E45.2B.DY20-12_Parada16S_osu867_R1.fastq.gz</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>MP_E45_2B_DY20_R2.fastq.gz</t>
+          <t>E45.2B.DY20-12_Parada16S_osu867_R2.fastq.gz</t>
         </is>
       </c>
     </row>
@@ -2838,7 +2838,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Sequencing performed at None</t>
+          <t>Sequencing performed at Oregon State University Center for Quantitative Life Sciences Genomics Core</t>
         </is>
       </c>
       <c r="K24" s="11" t="inlineStr">
@@ -2848,12 +2848,12 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>MP_E47_2B_DY20_R1.fastq.gz</t>
+          <t>E47.2B.DY20-12_Parada16S_osu867_R1.fastq.gz</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>MP_E47_2B_DY20_R2.fastq.gz</t>
+          <t>E47.2B.DY20-12_Parada16S_osu867_R2.fastq.gz</t>
         </is>
       </c>
     </row>
@@ -2905,7 +2905,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Sequencing performed at None</t>
+          <t>Sequencing performed at Oregon State University Center for Quantitative Life Sciences Genomics Core</t>
         </is>
       </c>
       <c r="K25" s="11" t="inlineStr">
@@ -2915,12 +2915,12 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>MP_E48_2B_DY20_R1.fastq.gz</t>
+          <t>E48.2B.DY20-12_Parada16S_osu867_R1.fastq.gz</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>MP_E48_2B_DY20_R2.fastq.gz</t>
+          <t>E48.2B.DY20-12_Parada16S_osu867_R2.fastq.gz</t>
         </is>
       </c>
     </row>
@@ -2972,7 +2972,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Sequencing performed at None</t>
+          <t>Sequencing performed at Oregon State University Center for Quantitative Life Sciences Genomics Core</t>
         </is>
       </c>
       <c r="K26" s="11" t="inlineStr">
@@ -2982,12 +2982,12 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>MP_E50_2B_DY20_R1.fastq.gz</t>
+          <t>E50.2B.DY20-12_Parada16S_osu867_R1.fastq.gz</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>MP_E50_2B_DY20_R2.fastq.gz</t>
+          <t>E50.2B.DY20-12_Parada16S_osu867_R2.fastq.gz</t>
         </is>
       </c>
     </row>
@@ -3039,7 +3039,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Sequencing performed at None</t>
+          <t>Sequencing performed at Oregon State University Center for Quantitative Life Sciences Genomics Core</t>
         </is>
       </c>
       <c r="K27" s="11" t="inlineStr">
@@ -3049,12 +3049,12 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>MP_E51_2B_DY20_R1.fastq.gz</t>
+          <t>E51.2B.DY20-12_Parada16S_osu867_R1.fastq.gz</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>MP_E51_2B_DY20_R2.fastq.gz</t>
+          <t>E51.2B.DY20-12_Parada16S_osu867_R2.fastq.gz</t>
         </is>
       </c>
     </row>
@@ -3106,7 +3106,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Sequencing performed at None</t>
+          <t>Sequencing performed at Oregon State University Center for Quantitative Life Sciences Genomics Core</t>
         </is>
       </c>
       <c r="K28" s="11" t="inlineStr">
@@ -3116,12 +3116,12 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>MP_E52_2B_DY20_R1.fastq.gz</t>
+          <t>E52.2B.DY20-12_Parada16S_osu867_R1.fastq.gz</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>MP_E52_2B_DY20_R2.fastq.gz</t>
+          <t>E52.2B.DY20-12_Parada16S_osu867_R2.fastq.gz</t>
         </is>
       </c>
     </row>
@@ -3173,7 +3173,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Sequencing performed at None</t>
+          <t>Sequencing performed at Oregon State University Center for Quantitative Life Sciences Genomics Core</t>
         </is>
       </c>
       <c r="K29" s="11" t="inlineStr">
@@ -3183,12 +3183,12 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>MP_E55_2B_DY20_R1.fastq.gz</t>
+          <t>E55.2B.DY20-12_Parada16S_osu867_R1.fastq.gz</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>MP_E55_2B_DY20_R2.fastq.gz</t>
+          <t>E55.2B.DY20-12_Parada16S_osu867_R2.fastq.gz</t>
         </is>
       </c>
     </row>
@@ -3240,7 +3240,7 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Sequencing performed at None</t>
+          <t>Sequencing performed at Oregon State University Center for Quantitative Life Sciences Genomics Core</t>
         </is>
       </c>
       <c r="K30" s="11" t="inlineStr">
@@ -3250,12 +3250,12 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>MP_E57_2B_DY20_R1.fastq.gz</t>
+          <t>E57.2B.DY20-12_Parada16S_osu867_R1.fastq.gz</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>MP_E57_2B_DY20_R2.fastq.gz</t>
+          <t>E57.2B.DY20-12_Parada16S_osu867_R2.fastq.gz</t>
         </is>
       </c>
     </row>
@@ -3307,7 +3307,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Sequencing performed at None</t>
+          <t>Sequencing performed at Oregon State University Center for Quantitative Life Sciences Genomics Core</t>
         </is>
       </c>
       <c r="K31" s="11" t="inlineStr">
@@ -3317,12 +3317,12 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>MP_E59_2B_DY20_R1.fastq.gz</t>
+          <t>E59.2B.DY20-12_Parada16S_osu867_R1.fastq.gz</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>MP_E59_2B_DY20_R2.fastq.gz</t>
+          <t>E59.2B.DY20-12_Parada16S_osu867_R2.fastq.gz</t>
         </is>
       </c>
     </row>
@@ -3374,7 +3374,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Sequencing performed at None</t>
+          <t>Sequencing performed at Oregon State University Center for Quantitative Life Sciences Genomics Core</t>
         </is>
       </c>
       <c r="K32" s="11" t="inlineStr">
@@ -3384,12 +3384,12 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>MP_E60_2B_DY20_R1.fastq.gz</t>
+          <t>E60.2B.DY20-12_Parada16S_osu867_R1.fastq.gz</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>MP_E60_2B_DY20_R2.fastq.gz</t>
+          <t>E60.2B.DY20-12_Parada16S_osu867_R2.fastq.gz</t>
         </is>
       </c>
     </row>
@@ -3441,7 +3441,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Sequencing performed at None</t>
+          <t>Sequencing performed at Oregon State University Center for Quantitative Life Sciences Genomics Core</t>
         </is>
       </c>
       <c r="K33" s="11" t="inlineStr">
@@ -3451,12 +3451,12 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>MP_E61_2B_DY20_R1.fastq.gz</t>
+          <t>E61.2B.DY20-12_Parada16S_osu867_R1.fastq.gz</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>MP_E61_2B_DY20_R2.fastq.gz</t>
+          <t>E61.2B.DY20-12_Parada16S_osu867_R2.fastq.gz</t>
         </is>
       </c>
     </row>
@@ -3508,7 +3508,7 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Sequencing performed at None</t>
+          <t>Sequencing performed at Oregon State University Center for Quantitative Life Sciences Genomics Core</t>
         </is>
       </c>
       <c r="K34" s="11" t="inlineStr">
@@ -3518,12 +3518,12 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>MP_E62_2B_DY20_R1.fastq.gz</t>
+          <t>E62.2B.DY20-12_Parada16S_osu867_R1.fastq.gz</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>MP_E62_2B_DY20_R2.fastq.gz</t>
+          <t>E62.2B.DY20-12_Parada16S_osu867_R2.fastq.gz</t>
         </is>
       </c>
     </row>
@@ -3575,7 +3575,7 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Sequencing performed at None</t>
+          <t>Sequencing performed at Oregon State University Center for Quantitative Life Sciences Genomics Core</t>
         </is>
       </c>
       <c r="K35" s="11" t="inlineStr">
@@ -3585,12 +3585,12 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>MP_E63_2B_DY20_R1.fastq.gz</t>
+          <t>E63.2B.DY20-12_Parada16S_osu867_R1.fastq.gz</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>MP_E63_2B_DY20_R2.fastq.gz</t>
+          <t>E63.2B.DY20-12_Parada16S_osu867_R2.fastq.gz</t>
         </is>
       </c>
     </row>
@@ -3642,7 +3642,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Sequencing performed at None</t>
+          <t>Sequencing performed at Oregon State University Center for Quantitative Life Sciences Genomics Core</t>
         </is>
       </c>
       <c r="K36" s="11" t="inlineStr">
@@ -3652,12 +3652,12 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>MP_E64_2B_DY20_R1.fastq.gz</t>
+          <t>E64.2B.DY20-12_Parada16S_osu867_R1.fastq.gz</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>MP_E64_2B_DY20_R2.fastq.gz</t>
+          <t>E64.2B.DY20-12_Parada16S_osu867_R2.fastq.gz</t>
         </is>
       </c>
     </row>
@@ -3709,7 +3709,7 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Sequencing performed at None</t>
+          <t>Sequencing performed at Oregon State University Center for Quantitative Life Sciences Genomics Core</t>
         </is>
       </c>
       <c r="K37" s="11" t="inlineStr">
@@ -3719,12 +3719,12 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>MP_E65_2B_DY20_R1.fastq.gz</t>
+          <t>E65.2B.DY20-12_Parada16S_osu867_R1.fastq.gz</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>MP_E65_2B_DY20_R2.fastq.gz</t>
+          <t>E65.2B.DY20-12_Parada16S_osu867_R2.fastq.gz</t>
         </is>
       </c>
     </row>
@@ -3776,7 +3776,7 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Sequencing performed at None</t>
+          <t>Sequencing performed at Oregon State University Center for Quantitative Life Sciences Genomics Core</t>
         </is>
       </c>
       <c r="K38" s="11" t="inlineStr">
@@ -3786,12 +3786,12 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>MP_E66_2B_DY20_R1.fastq.gz</t>
+          <t>E66.2B.DY20-12_Parada16S_osu867_R1.fastq.gz</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>MP_E66_2B_DY20_R2.fastq.gz</t>
+          <t>E66.2B.DY20-12_Parada16S_osu867_R2.fastq.gz</t>
         </is>
       </c>
     </row>
@@ -3843,7 +3843,7 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Sequencing performed at None</t>
+          <t>Sequencing performed at Oregon State University Center for Quantitative Life Sciences Genomics Core</t>
         </is>
       </c>
       <c r="K39" s="11" t="inlineStr">
@@ -3853,12 +3853,12 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>MP_E67_2B_DY20_R1.fastq.gz</t>
+          <t>E67.2B.DY20-12_Parada16S_osu867_R1.fastq.gz</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>MP_E67_2B_DY20_R2.fastq.gz</t>
+          <t>E67.2B.DY20-12_Parada16S_osu867_R2.fastq.gz</t>
         </is>
       </c>
     </row>
@@ -3910,7 +3910,7 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Sequencing performed at None</t>
+          <t>Sequencing performed at Oregon State University Center for Quantitative Life Sciences Genomics Core</t>
         </is>
       </c>
       <c r="K40" s="11" t="inlineStr">
@@ -3920,12 +3920,12 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>MP_E68_2B_DY20_R1.fastq.gz</t>
+          <t>E68.2B.DY20-12_Parada16S_osu867_R1.fastq.gz</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>MP_E68_2B_DY20_R2.fastq.gz</t>
+          <t>E68.2B.DY20-12_Parada16S_osu867_R2.fastq.gz</t>
         </is>
       </c>
     </row>
@@ -3977,7 +3977,7 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Sequencing performed at None</t>
+          <t>Sequencing performed at Oregon State University Center for Quantitative Life Sciences Genomics Core</t>
         </is>
       </c>
       <c r="K41" s="11" t="inlineStr">
@@ -3987,12 +3987,12 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>MP_E69_2B_DY20_R1.fastq.gz</t>
+          <t>E69.2B.DY20-12_Parada16S_osu867_R1.fastq.gz</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>MP_E69_2B_DY20_R2.fastq.gz</t>
+          <t>E69.2B.DY20-12_Parada16S_osu867_R2.fastq.gz</t>
         </is>
       </c>
     </row>
@@ -4044,7 +4044,7 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Sequencing performed at None</t>
+          <t>Sequencing performed at Oregon State University Center for Quantitative Life Sciences Genomics Core</t>
         </is>
       </c>
       <c r="K42" s="11" t="inlineStr">
@@ -4054,12 +4054,12 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>MP_E70_2B_DY20_R1.fastq.gz</t>
+          <t>E70.2B.DY20-12_Parada16S_osu867_R1.fastq.gz</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>MP_E70_2B_DY20_R2.fastq.gz</t>
+          <t>E70.2B.DY20-12_Parada16S_osu867_R2.fastq.gz</t>
         </is>
       </c>
     </row>
@@ -4111,7 +4111,7 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Sequencing performed at None</t>
+          <t>Sequencing performed at Oregon State University Center for Quantitative Life Sciences Genomics Core</t>
         </is>
       </c>
       <c r="K43" s="11" t="inlineStr">
@@ -4121,12 +4121,12 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>MP_E71_2B_DY20_R1.fastq.gz</t>
+          <t>E71.2B.DY20-12_Parada16S_osu867_R1.fastq.gz</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>MP_E71_2B_DY20_R2.fastq.gz</t>
+          <t>E71.2B.DY20-12_Parada16S_osu867_R2.fastq.gz</t>
         </is>
       </c>
     </row>
@@ -4178,7 +4178,7 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Sequencing performed at None</t>
+          <t>Sequencing performed at Oregon State University Center for Quantitative Life Sciences Genomics Core</t>
         </is>
       </c>
       <c r="K44" s="11" t="inlineStr">
@@ -4188,12 +4188,12 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>MP_E72_2B_DY20_R1.fastq.gz</t>
+          <t>E72.2B.DY20-12_Parada16S_osu867_R1.fastq.gz</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>MP_E72_2B_DY20_R2.fastq.gz</t>
+          <t>E72.2B.DY20-12_Parada16S_osu867_R2.fastq.gz</t>
         </is>
       </c>
     </row>
@@ -4245,7 +4245,7 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Sequencing performed at None</t>
+          <t>Sequencing performed at Oregon State University Center for Quantitative Life Sciences Genomics Core</t>
         </is>
       </c>
       <c r="K45" s="11" t="inlineStr">
@@ -4255,12 +4255,12 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>MP_E24_NC_DY20_R1.fastq.gz</t>
+          <t>E24.NC.DY20-12_Machida18S_osu867_R1.fastq.gz</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>MP_E24_NC_DY20_R2.fastq.gz</t>
+          <t>E24.NC.DY20-12_Machida18S_osu867_R2.fastq.gz</t>
         </is>
       </c>
     </row>
@@ -4312,7 +4312,7 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Sequencing performed at None</t>
+          <t>Sequencing performed at Oregon State University Center for Quantitative Life Sciences Genomics Core</t>
         </is>
       </c>
       <c r="K46" s="11" t="inlineStr">
@@ -4322,12 +4322,12 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>MP_E41_NC_DY20_R1.fastq.gz</t>
+          <t>E41.NC.DY20-12_Machida18S_osu867_R1.fastq.gz</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>MP_E41_NC_DY20_R2.fastq.gz</t>
+          <t>E41.NC.DY20-12_Machida18S_osu867_R2.fastq.gz</t>
         </is>
       </c>
     </row>
@@ -4379,7 +4379,7 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Sequencing performed at None</t>
+          <t>Sequencing performed at Oregon State University Center for Quantitative Life Sciences Genomics Core</t>
         </is>
       </c>
       <c r="K47" s="11" t="inlineStr">
@@ -4389,12 +4389,12 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>MP_E56_NC_DY20_R1.fastq.gz</t>
+          <t>E56.NC.DY20-12_Machida18S_osu867_R1.fastq.gz</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>MP_E56_NC_DY20_R2.fastq.gz</t>
+          <t>E56.NC.DY20-12_Machida18S_osu867_R2.fastq.gz</t>
         </is>
       </c>
     </row>
@@ -4446,7 +4446,7 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Sequencing performed at None</t>
+          <t>Sequencing performed at Oregon State University Center for Quantitative Life Sciences Genomics Core</t>
         </is>
       </c>
       <c r="K48" s="11" t="inlineStr">
@@ -4456,12 +4456,12 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>MP_E73_NC_DY20_R1.fastq.gz</t>
+          <t>E73.NC.DY20-12_Machida18S_osu867_R1.fastq.gz</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>MP_E73_NC_DY20_R2.fastq.gz</t>
+          <t>E73.NC.DY20-12_Machida18S_osu867_R2.fastq.gz</t>
         </is>
       </c>
     </row>
@@ -4508,7 +4508,7 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Sequencing performed at None</t>
+          <t>Sequencing performed at Oregon State University Center for Quantitative Life Sciences Genomics Core</t>
         </is>
       </c>
       <c r="K49" s="11" t="inlineStr">
@@ -4518,12 +4518,12 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>MP_Camel_R1.fastq.gz</t>
+          <t>osu867.Machida18S.POSITIVE.Camel_Machida18S_osu867_R1.fastq.gz</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>MP_Camel_R2.fastq.gz</t>
+          <t>osu867.Machida18S.POSITIVE.Camel_Machida18S_osu867_R2.fastq.gz</t>
         </is>
       </c>
     </row>
@@ -4570,7 +4570,7 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Sequencing performed at None</t>
+          <t>Sequencing performed at Oregon State University Center for Quantitative Life Sciences Genomics Core</t>
         </is>
       </c>
       <c r="K50" s="11" t="inlineStr">
@@ -4580,12 +4580,12 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>MP_Ferret_R1.fastq.gz</t>
+          <t>osu867.Machida18S.POSITIVE.Ferret_Machida18S_osu867_R1.fastq.gz</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>MP_Ferret_R2.fastq.gz</t>
+          <t>osu867.Machida18S.POSITIVE.Ferret_Machida18S_osu867_R2.fastq.gz</t>
         </is>
       </c>
     </row>
@@ -4637,7 +4637,7 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Sequencing performed at None</t>
+          <t>Sequencing performed at Oregon State University Center for Quantitative Life Sciences Genomics Core</t>
         </is>
       </c>
       <c r="K51" s="11" t="inlineStr">
@@ -4647,12 +4647,12 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>MP_E26_2B_DY20_R1.fastq.gz</t>
+          <t>E26.2B.DY20-12_Machida18S_osu867_R1.fastq.gz</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>MP_E26_2B_DY20_R2.fastq.gz</t>
+          <t>E26.2B.DY20-12_Machida18S_osu867_R2.fastq.gz</t>
         </is>
       </c>
     </row>
@@ -4704,7 +4704,7 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Sequencing performed at None</t>
+          <t>Sequencing performed at Oregon State University Center for Quantitative Life Sciences Genomics Core</t>
         </is>
       </c>
       <c r="K52" s="11" t="inlineStr">
@@ -4714,12 +4714,12 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>MP_E28_2B_DY20_R1.fastq.gz</t>
+          <t>E28.2B.DY20-12_Machida18S_osu867_R1.fastq.gz</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>MP_E28_2B_DY20_R2.fastq.gz</t>
+          <t>E28.2B.DY20-12_Machida18S_osu867_R2.fastq.gz</t>
         </is>
       </c>
     </row>
@@ -4771,7 +4771,7 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Sequencing performed at None</t>
+          <t>Sequencing performed at Oregon State University Center for Quantitative Life Sciences Genomics Core</t>
         </is>
       </c>
       <c r="K53" s="11" t="inlineStr">
@@ -4781,12 +4781,12 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>MP_E29_2B_DY20_R1.fastq.gz</t>
+          <t>E29.2B.DY20-12_Machida18S_osu867_R1.fastq.gz</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>MP_E29_2B_DY20_R2.fastq.gz</t>
+          <t>E29.2B.DY20-12_Machida18S_osu867_R2.fastq.gz</t>
         </is>
       </c>
     </row>
@@ -4838,7 +4838,7 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Sequencing performed at None</t>
+          <t>Sequencing performed at Oregon State University Center for Quantitative Life Sciences Genomics Core</t>
         </is>
       </c>
       <c r="K54" s="11" t="inlineStr">
@@ -4848,12 +4848,12 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>MP_E30_2B_DY20_R1.fastq.gz</t>
+          <t>E30.2B.DY20-12_Machida18S_osu867_R1.fastq.gz</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>MP_E30_2B_DY20_R2.fastq.gz</t>
+          <t>E30.2B.DY20-12_Machida18S_osu867_R2.fastq.gz</t>
         </is>
       </c>
     </row>
@@ -4905,7 +4905,7 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Sequencing performed at None</t>
+          <t>Sequencing performed at Oregon State University Center for Quantitative Life Sciences Genomics Core</t>
         </is>
       </c>
       <c r="K55" s="11" t="inlineStr">
@@ -4915,12 +4915,12 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>MP_E31_2B_DY20_R1.fastq.gz</t>
+          <t>E31.2B.DY20-12_Machida18S_osu867_R1.fastq.gz</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>MP_E31_2B_DY20_R2.fastq.gz</t>
+          <t>E31.2B.DY20-12_Machida18S_osu867_R2.fastq.gz</t>
         </is>
       </c>
     </row>
@@ -4972,7 +4972,7 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Sequencing performed at None</t>
+          <t>Sequencing performed at Oregon State University Center for Quantitative Life Sciences Genomics Core</t>
         </is>
       </c>
       <c r="K56" s="11" t="inlineStr">
@@ -4982,12 +4982,12 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>MP_E32_2B_DY20_R1.fastq.gz</t>
+          <t>E32.2B.DY20-12_Machida18S_osu867_R1.fastq.gz</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>MP_E32_2B_DY20_R2.fastq.gz</t>
+          <t>E32.2B.DY20-12_Machida18S_osu867_R2.fastq.gz</t>
         </is>
       </c>
     </row>
@@ -5039,7 +5039,7 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Sequencing performed at None</t>
+          <t>Sequencing performed at Oregon State University Center for Quantitative Life Sciences Genomics Core</t>
         </is>
       </c>
       <c r="K57" s="11" t="inlineStr">
@@ -5049,12 +5049,12 @@
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>MP_E33_2B_DY20_R1.fastq.gz</t>
+          <t>E33.2B.DY20-12_Machida18S_osu867_R1.fastq.gz</t>
         </is>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>MP_E33_2B_DY20_R2.fastq.gz</t>
+          <t>E33.2B.DY20-12_Machida18S_osu867_R2.fastq.gz</t>
         </is>
       </c>
     </row>
@@ -5106,7 +5106,7 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Sequencing performed at None</t>
+          <t>Sequencing performed at Oregon State University Center for Quantitative Life Sciences Genomics Core</t>
         </is>
       </c>
       <c r="K58" s="11" t="inlineStr">
@@ -5116,12 +5116,12 @@
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>MP_E34_2B_DY20_R1.fastq.gz</t>
+          <t>E34.2B.DY20-12_Machida18S_osu867_R1.fastq.gz</t>
         </is>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>MP_E34_2B_DY20_R2.fastq.gz</t>
+          <t>E34.2B.DY20-12_Machida18S_osu867_R2.fastq.gz</t>
         </is>
       </c>
     </row>
@@ -5173,7 +5173,7 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Sequencing performed at None</t>
+          <t>Sequencing performed at Oregon State University Center for Quantitative Life Sciences Genomics Core</t>
         </is>
       </c>
       <c r="K59" s="11" t="inlineStr">
@@ -5183,12 +5183,12 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>MP_E35_2B_DY20_R1.fastq.gz</t>
+          <t>E35.2B.DY20-12_Machida18S_osu867_R1.fastq.gz</t>
         </is>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>MP_E35_2B_DY20_R2.fastq.gz</t>
+          <t>E35.2B.DY20-12_Machida18S_osu867_R2.fastq.gz</t>
         </is>
       </c>
     </row>
@@ -5240,7 +5240,7 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Sequencing performed at None</t>
+          <t>Sequencing performed at Oregon State University Center for Quantitative Life Sciences Genomics Core</t>
         </is>
       </c>
       <c r="K60" s="11" t="inlineStr">
@@ -5250,12 +5250,12 @@
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>MP_E37_2B_DY20_R1.fastq.gz</t>
+          <t>E37.2B.DY20-12_Machida18S_osu867_R1.fastq.gz</t>
         </is>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>MP_E37_2B_DY20_R2.fastq.gz</t>
+          <t>E37.2B.DY20-12_Machida18S_osu867_R2.fastq.gz</t>
         </is>
       </c>
     </row>
@@ -5307,7 +5307,7 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Sequencing performed at None</t>
+          <t>Sequencing performed at Oregon State University Center for Quantitative Life Sciences Genomics Core</t>
         </is>
       </c>
       <c r="K61" s="11" t="inlineStr">
@@ -5317,12 +5317,12 @@
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>MP_E38_2B_DY20_R1.fastq.gz</t>
+          <t>E38.2B.DY20-12_Machida18S_osu867_R1.fastq.gz</t>
         </is>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>MP_E38_2B_DY20_R2.fastq.gz</t>
+          <t>E38.2B.DY20-12_Machida18S_osu867_R2.fastq.gz</t>
         </is>
       </c>
     </row>
@@ -5374,7 +5374,7 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Sequencing performed at None</t>
+          <t>Sequencing performed at Oregon State University Center for Quantitative Life Sciences Genomics Core</t>
         </is>
       </c>
       <c r="K62" s="11" t="inlineStr">
@@ -5384,12 +5384,12 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>MP_E39_2B_DY20_R1.fastq.gz</t>
+          <t>E39.2B.DY20-12_Machida18S_osu867_R1.fastq.gz</t>
         </is>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>MP_E39_2B_DY20_R2.fastq.gz</t>
+          <t>E39.2B.DY20-12_Machida18S_osu867_R2.fastq.gz</t>
         </is>
       </c>
     </row>
@@ -5441,7 +5441,7 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Sequencing performed at None</t>
+          <t>Sequencing performed at Oregon State University Center for Quantitative Life Sciences Genomics Core</t>
         </is>
       </c>
       <c r="K63" s="11" t="inlineStr">
@@ -5451,12 +5451,12 @@
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>MP_E40_2B_DY20_R1.fastq.gz</t>
+          <t>E40.2B.DY20-12_Machida18S_osu867_R1.fastq.gz</t>
         </is>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>MP_E40_2B_DY20_R2.fastq.gz</t>
+          <t>E40.2B.DY20-12_Machida18S_osu867_R2.fastq.gz</t>
         </is>
       </c>
     </row>
@@ -5508,7 +5508,7 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Sequencing performed at None</t>
+          <t>Sequencing performed at Oregon State University Center for Quantitative Life Sciences Genomics Core</t>
         </is>
       </c>
       <c r="K64" s="11" t="inlineStr">
@@ -5518,12 +5518,12 @@
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>MP_E42_2B_DY20_R1.fastq.gz</t>
+          <t>E42.2B.DY20-12_Machida18S_osu867_R1.fastq.gz</t>
         </is>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>MP_E42_2B_DY20_R2.fastq.gz</t>
+          <t>E42.2B.DY20-12_Machida18S_osu867_R2.fastq.gz</t>
         </is>
       </c>
     </row>
@@ -5575,7 +5575,7 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Sequencing performed at None</t>
+          <t>Sequencing performed at Oregon State University Center for Quantitative Life Sciences Genomics Core</t>
         </is>
       </c>
       <c r="K65" s="11" t="inlineStr">
@@ -5585,12 +5585,12 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>MP_E43_2B_DY20_R1.fastq.gz</t>
+          <t>E43.2B.DY20-12_Machida18S_osu867_R1.fastq.gz</t>
         </is>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>MP_E43_2B_DY20_R2.fastq.gz</t>
+          <t>E43.2B.DY20-12_Machida18S_osu867_R2.fastq.gz</t>
         </is>
       </c>
     </row>
@@ -5642,7 +5642,7 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Sequencing performed at None</t>
+          <t>Sequencing performed at Oregon State University Center for Quantitative Life Sciences Genomics Core</t>
         </is>
       </c>
       <c r="K66" s="11" t="inlineStr">
@@ -5652,12 +5652,12 @@
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>MP_E45_2B_DY20_R1.fastq.gz</t>
+          <t>E45.2B.DY20-12_Machida18S_osu867_R1.fastq.gz</t>
         </is>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>MP_E45_2B_DY20_R2.fastq.gz</t>
+          <t>E45.2B.DY20-12_Machida18S_osu867_R2.fastq.gz</t>
         </is>
       </c>
     </row>
@@ -5709,7 +5709,7 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Sequencing performed at None</t>
+          <t>Sequencing performed at Oregon State University Center for Quantitative Life Sciences Genomics Core</t>
         </is>
       </c>
       <c r="K67" s="11" t="inlineStr">
@@ -5719,12 +5719,12 @@
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>MP_E47_2B_DY20_R1.fastq.gz</t>
+          <t>E47.2B.DY20-12_Machida18S_osu867_R1.fastq.gz</t>
         </is>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>MP_E47_2B_DY20_R2.fastq.gz</t>
+          <t>E47.2B.DY20-12_Machida18S_osu867_R2.fastq.gz</t>
         </is>
       </c>
     </row>
@@ -5776,7 +5776,7 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Sequencing performed at None</t>
+          <t>Sequencing performed at Oregon State University Center for Quantitative Life Sciences Genomics Core</t>
         </is>
       </c>
       <c r="K68" s="11" t="inlineStr">
@@ -5786,12 +5786,12 @@
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>MP_E48_2B_DY20_R1.fastq.gz</t>
+          <t>E48.2B.DY20-12_Machida18S_osu867_R1.fastq.gz</t>
         </is>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>MP_E48_2B_DY20_R2.fastq.gz</t>
+          <t>E48.2B.DY20-12_Machida18S_osu867_R2.fastq.gz</t>
         </is>
       </c>
     </row>
@@ -5843,7 +5843,7 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Sequencing performed at None</t>
+          <t>Sequencing performed at Oregon State University Center for Quantitative Life Sciences Genomics Core</t>
         </is>
       </c>
       <c r="K69" s="11" t="inlineStr">
@@ -5853,12 +5853,12 @@
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>MP_E50_2B_DY20_R1.fastq.gz</t>
+          <t>E50.2B.DY20-12_Machida18S_osu867_R1.fastq.gz</t>
         </is>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>MP_E50_2B_DY20_R2.fastq.gz</t>
+          <t>E50.2B.DY20-12_Machida18S_osu867_R2.fastq.gz</t>
         </is>
       </c>
     </row>
@@ -5910,7 +5910,7 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>Sequencing performed at None</t>
+          <t>Sequencing performed at Oregon State University Center for Quantitative Life Sciences Genomics Core</t>
         </is>
       </c>
       <c r="K70" s="11" t="inlineStr">
@@ -5920,12 +5920,12 @@
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>MP_E51_2B_DY20_R1.fastq.gz</t>
+          <t>E51.2B.DY20-12_Machida18S_osu867_R1.fastq.gz</t>
         </is>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>MP_E51_2B_DY20_R2.fastq.gz</t>
+          <t>E51.2B.DY20-12_Machida18S_osu867_R2.fastq.gz</t>
         </is>
       </c>
     </row>
@@ -5977,7 +5977,7 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Sequencing performed at None</t>
+          <t>Sequencing performed at Oregon State University Center for Quantitative Life Sciences Genomics Core</t>
         </is>
       </c>
       <c r="K71" s="11" t="inlineStr">
@@ -5987,12 +5987,12 @@
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>MP_E52_2B_DY20_R1.fastq.gz</t>
+          <t>E52.2B.DY20-12_Machida18S_osu867_R1.fastq.gz</t>
         </is>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>MP_E52_2B_DY20_R2.fastq.gz</t>
+          <t>E52.2B.DY20-12_Machida18S_osu867_R2.fastq.gz</t>
         </is>
       </c>
     </row>
@@ -6044,7 +6044,7 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>Sequencing performed at None</t>
+          <t>Sequencing performed at Oregon State University Center for Quantitative Life Sciences Genomics Core</t>
         </is>
       </c>
       <c r="K72" s="11" t="inlineStr">
@@ -6054,12 +6054,12 @@
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>MP_E55_2B_DY20_R1.fastq.gz</t>
+          <t>E55.2B.DY20-12_Machida18S_osu867_R1.fastq.gz</t>
         </is>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>MP_E55_2B_DY20_R2.fastq.gz</t>
+          <t>E55.2B.DY20-12_Machida18S_osu867_R2.fastq.gz</t>
         </is>
       </c>
     </row>
@@ -6111,7 +6111,7 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>Sequencing performed at None</t>
+          <t>Sequencing performed at Oregon State University Center for Quantitative Life Sciences Genomics Core</t>
         </is>
       </c>
       <c r="K73" s="11" t="inlineStr">
@@ -6121,12 +6121,12 @@
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>MP_E57_2B_DY20_R1.fastq.gz</t>
+          <t>E57.2B.DY20-12_Machida18S_osu867_R1.fastq.gz</t>
         </is>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>MP_E57_2B_DY20_R2.fastq.gz</t>
+          <t>E57.2B.DY20-12_Machida18S_osu867_R2.fastq.gz</t>
         </is>
       </c>
     </row>
@@ -6178,7 +6178,7 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>Sequencing performed at None</t>
+          <t>Sequencing performed at Oregon State University Center for Quantitative Life Sciences Genomics Core</t>
         </is>
       </c>
       <c r="K74" s="11" t="inlineStr">
@@ -6188,12 +6188,12 @@
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>MP_E59_2B_DY20_R1.fastq.gz</t>
+          <t>E59.2B.DY20-12_Machida18S_osu867_R1.fastq.gz</t>
         </is>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>MP_E59_2B_DY20_R2.fastq.gz</t>
+          <t>E59.2B.DY20-12_Machida18S_osu867_R2.fastq.gz</t>
         </is>
       </c>
     </row>
@@ -6245,7 +6245,7 @@
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>Sequencing performed at None</t>
+          <t>Sequencing performed at Oregon State University Center for Quantitative Life Sciences Genomics Core</t>
         </is>
       </c>
       <c r="K75" s="11" t="inlineStr">
@@ -6255,12 +6255,12 @@
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>MP_E60_2B_DY20_R1.fastq.gz</t>
+          <t>E60.2B.DY20-12_Machida18S_osu867_R1.fastq.gz</t>
         </is>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>MP_E60_2B_DY20_R2.fastq.gz</t>
+          <t>E60.2B.DY20-12_Machida18S_osu867_R2.fastq.gz</t>
         </is>
       </c>
     </row>
@@ -6312,7 +6312,7 @@
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>Sequencing performed at None</t>
+          <t>Sequencing performed at Oregon State University Center for Quantitative Life Sciences Genomics Core</t>
         </is>
       </c>
       <c r="K76" s="11" t="inlineStr">
@@ -6322,12 +6322,12 @@
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>MP_E61_2B_DY20_R1.fastq.gz</t>
+          <t>E61.2B.DY20-12_Machida18S_osu867_R1.fastq.gz</t>
         </is>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>MP_E61_2B_DY20_R2.fastq.gz</t>
+          <t>E61.2B.DY20-12_Machida18S_osu867_R2.fastq.gz</t>
         </is>
       </c>
     </row>
@@ -6379,7 +6379,7 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>Sequencing performed at None</t>
+          <t>Sequencing performed at Oregon State University Center for Quantitative Life Sciences Genomics Core</t>
         </is>
       </c>
       <c r="K77" s="11" t="inlineStr">
@@ -6389,12 +6389,12 @@
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>MP_E62_2B_DY20_R1.fastq.gz</t>
+          <t>E62.2B.DY20-12_Machida18S_osu867_R1.fastq.gz</t>
         </is>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>MP_E62_2B_DY20_R2.fastq.gz</t>
+          <t>E62.2B.DY20-12_Machida18S_osu867_R2.fastq.gz</t>
         </is>
       </c>
     </row>
@@ -6446,7 +6446,7 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>Sequencing performed at None</t>
+          <t>Sequencing performed at Oregon State University Center for Quantitative Life Sciences Genomics Core</t>
         </is>
       </c>
       <c r="K78" s="11" t="inlineStr">
@@ -6456,12 +6456,12 @@
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>MP_E63_2B_DY20_R1.fastq.gz</t>
+          <t>E63.2B.DY20-12_Machida18S_osu867_R1.fastq.gz</t>
         </is>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>MP_E63_2B_DY20_R2.fastq.gz</t>
+          <t>E63.2B.DY20-12_Machida18S_osu867_R2.fastq.gz</t>
         </is>
       </c>
     </row>
@@ -6513,7 +6513,7 @@
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>Sequencing performed at None</t>
+          <t>Sequencing performed at Oregon State University Center for Quantitative Life Sciences Genomics Core</t>
         </is>
       </c>
       <c r="K79" s="11" t="inlineStr">
@@ -6523,12 +6523,12 @@
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>MP_E64_2B_DY20_R1.fastq.gz</t>
+          <t>E64.2B.DY20-12_Machida18S_osu867_R1.fastq.gz</t>
         </is>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>MP_E64_2B_DY20_R2.fastq.gz</t>
+          <t>E64.2B.DY20-12_Machida18S_osu867_R2.fastq.gz</t>
         </is>
       </c>
     </row>
@@ -6580,7 +6580,7 @@
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>Sequencing performed at None</t>
+          <t>Sequencing performed at Oregon State University Center for Quantitative Life Sciences Genomics Core</t>
         </is>
       </c>
       <c r="K80" s="11" t="inlineStr">
@@ -6590,12 +6590,12 @@
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>MP_E65_2B_DY20_R1.fastq.gz</t>
+          <t>E65.2B.DY20-12_Machida18S_osu867_R1.fastq.gz</t>
         </is>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>MP_E65_2B_DY20_R2.fastq.gz</t>
+          <t>E65.2B.DY20-12_Machida18S_osu867_R2.fastq.gz</t>
         </is>
       </c>
     </row>
@@ -6647,7 +6647,7 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>Sequencing performed at None</t>
+          <t>Sequencing performed at Oregon State University Center for Quantitative Life Sciences Genomics Core</t>
         </is>
       </c>
       <c r="K81" s="11" t="inlineStr">
@@ -6657,12 +6657,12 @@
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>MP_E66_2B_DY20_R1.fastq.gz</t>
+          <t>E66.2B.DY20-12_Machida18S_osu867_R1.fastq.gz</t>
         </is>
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>MP_E66_2B_DY20_R2.fastq.gz</t>
+          <t>E66.2B.DY20-12_Machida18S_osu867_R2.fastq.gz</t>
         </is>
       </c>
     </row>
@@ -6714,7 +6714,7 @@
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>Sequencing performed at None</t>
+          <t>Sequencing performed at Oregon State University Center for Quantitative Life Sciences Genomics Core</t>
         </is>
       </c>
       <c r="K82" s="11" t="inlineStr">
@@ -6724,12 +6724,12 @@
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>MP_E67_2B_DY20_R1.fastq.gz</t>
+          <t>E67.2B.DY20-12_Machida18S_osu867_R1.fastq.gz</t>
         </is>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>MP_E67_2B_DY20_R2.fastq.gz</t>
+          <t>E67.2B.DY20-12_Machida18S_osu867_R2.fastq.gz</t>
         </is>
       </c>
     </row>
@@ -6781,7 +6781,7 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>Sequencing performed at None</t>
+          <t>Sequencing performed at Oregon State University Center for Quantitative Life Sciences Genomics Core</t>
         </is>
       </c>
       <c r="K83" s="11" t="inlineStr">
@@ -6791,12 +6791,12 @@
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>MP_E68_2B_DY20_R1.fastq.gz</t>
+          <t>E68.2B.DY20-12_Machida18S_osu867_R1.fastq.gz</t>
         </is>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>MP_E68_2B_DY20_R2.fastq.gz</t>
+          <t>E68.2B.DY20-12_Machida18S_osu867_R2.fastq.gz</t>
         </is>
       </c>
     </row>
@@ -6848,7 +6848,7 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>Sequencing performed at None</t>
+          <t>Sequencing performed at Oregon State University Center for Quantitative Life Sciences Genomics Core</t>
         </is>
       </c>
       <c r="K84" s="11" t="inlineStr">
@@ -6858,12 +6858,12 @@
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>MP_E69_2B_DY20_R1.fastq.gz</t>
+          <t>E69.2B.DY20-12_Machida18S_osu867_R1.fastq.gz</t>
         </is>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>MP_E69_2B_DY20_R2.fastq.gz</t>
+          <t>E69.2B.DY20-12_Machida18S_osu867_R2.fastq.gz</t>
         </is>
       </c>
     </row>
@@ -6915,7 +6915,7 @@
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>Sequencing performed at None</t>
+          <t>Sequencing performed at Oregon State University Center for Quantitative Life Sciences Genomics Core</t>
         </is>
       </c>
       <c r="K85" s="11" t="inlineStr">
@@ -6925,12 +6925,12 @@
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>MP_E70_2B_DY20_R1.fastq.gz</t>
+          <t>E70.2B.DY20-12_Machida18S_osu867_R1.fastq.gz</t>
         </is>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>MP_E70_2B_DY20_R2.fastq.gz</t>
+          <t>E70.2B.DY20-12_Machida18S_osu867_R2.fastq.gz</t>
         </is>
       </c>
     </row>
@@ -6982,7 +6982,7 @@
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>Sequencing performed at None</t>
+          <t>Sequencing performed at Oregon State University Center for Quantitative Life Sciences Genomics Core</t>
         </is>
       </c>
       <c r="K86" s="11" t="inlineStr">
@@ -6992,12 +6992,12 @@
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>MP_E71_2B_DY20_R1.fastq.gz</t>
+          <t>E71.2B.DY20-12_Machida18S_osu867_R1.fastq.gz</t>
         </is>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>MP_E71_2B_DY20_R2.fastq.gz</t>
+          <t>E71.2B.DY20-12_Machida18S_osu867_R2.fastq.gz</t>
         </is>
       </c>
     </row>
@@ -7049,7 +7049,7 @@
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>Sequencing performed at None</t>
+          <t>Sequencing performed at Oregon State University Center for Quantitative Life Sciences Genomics Core</t>
         </is>
       </c>
       <c r="K87" s="11" t="inlineStr">
@@ -7059,12 +7059,12 @@
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>MP_E72_2B_DY20_R1.fastq.gz</t>
+          <t>E72.2B.DY20-12_Machida18S_osu867_R1.fastq.gz</t>
         </is>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>MP_E72_2B_DY20_R2.fastq.gz</t>
+          <t>E72.2B.DY20-12_Machida18S_osu867_R2.fastq.gz</t>
         </is>
       </c>
     </row>
